--- a/public/export/service-import-sample-file.xlsx
+++ b/public/export/service-import-sample-file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\www\student-store-api\public\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827D6F52-A12D-4A21-9B5F-667A06B4CBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45850F51-4AFB-472D-847B-35D140F0209C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE495C39-57E1-42E3-B52A-6F62DE5635B2}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>service_online_link</t>
   </si>
   <si>
-    <t>service_languages</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>service_description</t>
+  </si>
+  <si>
+    <t>languages</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -511,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -543,22 +543,22 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/public/export/service-import-sample-file.xlsx
+++ b/public/export/service-import-sample-file.xlsx
@@ -8,61 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\www\student-store-api\public\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45850F51-4AFB-472D-847B-35D140F0209C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64AF71E-70B0-4D93-B47A-244D08F26512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE495C39-57E1-42E3-B52A-6F62DE5635B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>is_on_offer</t>
-  </si>
-  <si>
-    <t>discount_type</t>
-  </si>
-  <si>
-    <t>discount_value</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>actual_price</t>
-  </si>
-  <si>
-    <t>service_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>service</t>
   </si>
@@ -73,18 +36,6 @@
     <t>Online classes for programmer</t>
   </si>
   <si>
-    <t>service_type</t>
-  </si>
-  <si>
-    <t>service_period_time</t>
-  </si>
-  <si>
-    <t>service_period_time_type</t>
-  </si>
-  <si>
-    <t>service_online_link</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -100,18 +51,756 @@
     <t>days</t>
   </si>
   <si>
-    <t>service_description</t>
-  </si>
-  <si>
-    <t>languages</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Type (no need to change)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for the type of the item i.e. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Service Name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for the name of the service.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Actual Price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for the actual price for the service.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Discount in Percentage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">compulsory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field with values</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0 to 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>having only numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for applying discount to the price of service.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for description of the service.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6. Service Type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">compulsory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">field for type of the service. It have only one value out of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">online, at_center or at_customer.
+7. Service Period Time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for the service period time having numeric values only.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8. Service Period Type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for service period type of the service. It have only one value out of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hours, days, weeks, months</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Service Online Link
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field contains the online link for the online services.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10. Service Languages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field having languages at which the service is offered, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg English, Swedish, Hindi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> etc.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11. Tags
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for service search tags.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12 Images
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compulsory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field for service image url.</t>
+    </r>
+  </si>
+  <si>
+    <t>tags_required</t>
+  </si>
+  <si>
+    <t>type_required</t>
+  </si>
+  <si>
+    <t>service_name_required</t>
+  </si>
+  <si>
+    <t>original_price_required</t>
+  </si>
+  <si>
+    <t>service_description_required</t>
+  </si>
+  <si>
+    <t>service_type_required</t>
+  </si>
+  <si>
+    <t>service_period_time_required</t>
+  </si>
+  <si>
+    <t>service_period_time_type_required</t>
+  </si>
+  <si>
+    <t>service_online_link_not_required</t>
+  </si>
+  <si>
+    <t>languages_required</t>
+  </si>
+  <si>
+    <t>images_required</t>
+  </si>
+  <si>
+    <t>Instructions_for_help</t>
+  </si>
+  <si>
+    <t>discount_in_percentage_not_required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,8 +828,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,126 +1146,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08470AB-C17C-45CE-BA84-CEA747715504}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="26.7265625" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="100.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="26.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="171.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="348" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>1500</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{4EC8FC7F-6817-43C4-A0DD-1A8506F1C45C}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{DFD2880D-00B5-4547-B14C-4DF8A8379398}">
-      <formula1>"fixed_amount,percentage"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{256F7BC5-862D-46FE-9325-BB0E3EBF14FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"online,at_customer,at_center"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{12F56954-9417-48FF-868A-72E852B15B65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"hours,days,weeks,months"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{4557B391-1152-4406-BEA8-745A789E7ED4}">
+      <formula1>0</formula1>
+      <formula2>100000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{98162E38-7BFB-46D0-ADCD-B44FCBF46EDD}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/export/service-import-sample-file.xlsx
+++ b/public/export/service-import-sample-file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\www\student-store-api\public\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64AF71E-70B0-4D93-B47A-244D08F26512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4404E74-B6D7-4FF3-89C6-B0B2449C9EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1247,7 +1247,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"online,at_customer,at_center"</formula1>
     </dataValidation>
@@ -1262,6 +1262,9 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{5A1ECDDF-6C4E-4B46-B2E3-42FB53297DA1}">
+      <formula1>"service"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/export/service-import-sample-file.xlsx
+++ b/public/export/service-import-sample-file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\www\student-store-api\public\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4404E74-B6D7-4FF3-89C6-B0B2449C9EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C663EE-31DA-42AD-B17B-E9B129B822AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,10 +1248,10 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"online,at_customer,at_center"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"hours,days,weeks,months"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{4557B391-1152-4406-BEA8-745A789E7ED4}">
